--- a/data/replication.xlsx
+++ b/data/replication.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="876" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="876" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="add_replication" sheetId="5" r:id="rId1"/>
-    <sheet name="list_replication" sheetId="7" r:id="rId2"/>
-    <sheet name="list_replication_by_verbose" sheetId="8" r:id="rId3"/>
-    <sheet name="del_replication" sheetId="9" r:id="rId4"/>
-    <sheet name="help_replication" sheetId="10" r:id="rId5"/>
-    <sheet name="invalid_setting_for_replication" sheetId="3" r:id="rId6"/>
-    <sheet name="invalid_option_for_replication" sheetId="2" r:id="rId7"/>
-    <sheet name="missing_parameter_replication" sheetId="4" r:id="rId8"/>
+    <sheet name="start_replication" sheetId="5" r:id="rId1"/>
+    <sheet name="forbidden_action" sheetId="13" r:id="rId2"/>
+    <sheet name="list_replication" sheetId="7" r:id="rId3"/>
+    <sheet name="list_replication_by_verbose" sheetId="8" r:id="rId4"/>
+    <sheet name="stop_replication" sheetId="9" r:id="rId5"/>
+    <sheet name="pause_replication" sheetId="11" r:id="rId6"/>
+    <sheet name="resume_replication" sheetId="12" r:id="rId7"/>
+    <sheet name="help_replication" sheetId="10" r:id="rId8"/>
+    <sheet name="invalid_setting_for_replication" sheetId="3" r:id="rId9"/>
+    <sheet name="invalid_option_for_replication" sheetId="2" r:id="rId10"/>
+    <sheet name="missing_parameter_replication" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,38 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>replication should be added by "name=T, protocol=async"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication should be added by "name=t2, protocol=semi-sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication should be added by "name=test_Test_Test_Test_Test_Test31, protocol=sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication should be added by "name=test_Test_Test_Test_Test_Test_32"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a add -i 2 -p 1 -s "name=T, protocol=async"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a add -i 3 -p 1 -s "name=t2, protocol=semi-sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a add -i 5 -p 0 -s "name=test_Test_Test_Test_Test_Test_32"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a add -i 4 -p 0 -s "name=test_Test_Test_Test_Test_Test31, protocol=sync"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Block: 8 KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,9 +73,6 @@
     <t>SyncMode: standard</t>
   </si>
   <si>
-    <t>ThinProv: Disabled</t>
-  </si>
-  <si>
     <t>Logbias: latency</t>
   </si>
   <si>
@@ -112,66 +80,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>replication -a list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>replication -a list -v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -i 2 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 3 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 4 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -I 5 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a list -2 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>all of replication should be listed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>specific replication should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>all of replication should be listed by verbose mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>specific replication should be listed by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a list -i 2 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a del -i 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific replication should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -i 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>replicaiton -h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +113,293 @@
   </si>
   <si>
     <t>Examples:</t>
+  </si>
+  <si>
+    <t>replication -a start -i 5 -p 0 -s "name=test_Test_Test_Test_Test_Test_32"</t>
+  </si>
+  <si>
+    <t>replication should be started by "name=test_Test_Test_Test_Test_Test_32"</t>
+  </si>
+  <si>
+    <t>replication should be started by "name=T, syncmode=async"</t>
+  </si>
+  <si>
+    <t>replication -a start -i 3 -p 1 -s "name=t2, syncmode=semi-sync"</t>
+  </si>
+  <si>
+    <t>replication should be started by "name=t2, syncmode=semi-sync"</t>
+  </si>
+  <si>
+    <t>replication -a start -i 4 -p 0 -s "name=test_Test_Test_Test_Test_Test31, syncmode=sync"</t>
+  </si>
+  <si>
+    <t>replication should be started by "name=test_Test_Test_Test_Test_Test31, syncmode=sync"</t>
+  </si>
+  <si>
+    <t>volume -i 6 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvType: Replication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvKind: Local</t>
+  </si>
+  <si>
+    <t>AdvRole: Destination</t>
+  </si>
+  <si>
+    <t>AdvRole: Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvMode: Active-Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvProtocol: Semi-Sync</t>
+  </si>
+  <si>
+    <t>AdvProtocol: Async</t>
+  </si>
+  <si>
+    <t>AdvProtocol: Sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 5 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block: 64 KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block: 64 KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sector: 4 KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncMode: disabled</t>
+  </si>
+  <si>
+    <t>Logbias: throughput</t>
+  </si>
+  <si>
+    <t>Compress: gzip</t>
+  </si>
+  <si>
+    <t>replication -a start -i 2 -p 1 -s "name=T, syncmode=async"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 7 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 8 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvStatus: Syncing</t>
+  </si>
+  <si>
+    <t>replication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SrcVol</t>
+  </si>
+  <si>
+    <t>DestVol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalCap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Location: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role:</t>
+  </si>
+  <si>
+    <t>Mode:</t>
+  </si>
+  <si>
+    <t>SyncMode:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Progress:</t>
+  </si>
+  <si>
+    <t>SourceVolumeId:</t>
+  </si>
+  <si>
+    <t>SourceVolumeName:</t>
+  </si>
+  <si>
+    <t>SourcePoolName:</t>
+  </si>
+  <si>
+    <t>SourcePortalIP:</t>
+  </si>
+  <si>
+    <t>DestinationVolumeId:</t>
+  </si>
+  <si>
+    <t>DestinationVolumeName:</t>
+  </si>
+  <si>
+    <t>DestinationPoolName:</t>
+  </si>
+  <si>
+    <t>DestinationPortalIP:</t>
+  </si>
+  <si>
+    <t>TotalCapacity:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsedCapacity: </t>
+  </si>
+  <si>
+    <t>replication -a stop -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific replication should be stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active-Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a pause -i 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a resume -i 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication should be resumed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a del -i 1 -f -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a export -i 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -p volume -i 0 -l 6 -m 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a add -t volume -d 6 -s "name=test_replica"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error (</t>
+  </si>
+  <si>
+    <t>volume -a mod -i 6 -s "name=no_way"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not be exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not be modified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not create snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not be added for lunmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source volume should not be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source pool should not be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a del -i 0 -f -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination pool should not be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication should be paused by source volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication should be paused by destination volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a pause -i 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -539,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,12 +759,18 @@
     <col min="3" max="3" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -571,120 +784,408 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="32.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +1197,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -715,7 +1340,7 @@
     <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -726,75 +1351,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -806,10 +1383,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,13 +1524,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -851,12 +1543,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -884,22 +1681,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -909,188 +1706,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="32.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/replication.xlsx
+++ b/data/replication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="876" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="876" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="start_replication" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="167">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,346 +59,585 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Block: 8 KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sector: 512 Bytes</t>
+  </si>
+  <si>
+    <t>SyncMode: standard</t>
+  </si>
+  <si>
+    <t>Logbias: latency</t>
+  </si>
+  <si>
+    <t>Compress: off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of replication should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of replication should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usage:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Options:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Examples:</t>
+  </si>
+  <si>
+    <t>replication -a start -i 5 -p 0 -s "name=test_Test_Test_Test_Test_Test_32"</t>
+  </si>
+  <si>
+    <t>replication should be started by "name=test_Test_Test_Test_Test_Test_32"</t>
+  </si>
+  <si>
+    <t>replication should be started by "name=T, syncmode=async"</t>
+  </si>
+  <si>
+    <t>replication -a start -i 3 -p 1 -s "name=t2, syncmode=semi-sync"</t>
+  </si>
+  <si>
+    <t>replication should be started by "name=t2, syncmode=semi-sync"</t>
+  </si>
+  <si>
+    <t>replication -a start -i 4 -p 0 -s "name=test_Test_Test_Test_Test_Test31, syncmode=sync"</t>
+  </si>
+  <si>
+    <t>replication should be started by "name=test_Test_Test_Test_Test_Test31, syncmode=sync"</t>
+  </si>
+  <si>
+    <t>volume -i 6 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvType: Replication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvKind: Local</t>
+  </si>
+  <si>
+    <t>AdvRole: Destination</t>
+  </si>
+  <si>
+    <t>AdvRole: Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvMode: Active-Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvProtocol: Semi-Sync</t>
+  </si>
+  <si>
+    <t>AdvProtocol: Async</t>
+  </si>
+  <si>
+    <t>AdvProtocol: Sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 5 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block: 64 KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block: 64 KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sector: 4 KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncMode: disabled</t>
+  </si>
+  <si>
+    <t>Logbias: throughput</t>
+  </si>
+  <si>
+    <t>Compress: gzip</t>
+  </si>
+  <si>
+    <t>replication -a start -i 2 -p 1 -s "name=T, syncmode=async"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 7 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 8 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvStatus: Syncing</t>
+  </si>
+  <si>
+    <t>replication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SrcVol</t>
+  </si>
+  <si>
+    <t>DestVol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalCap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Location: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role:</t>
+  </si>
+  <si>
+    <t>Mode:</t>
+  </si>
+  <si>
+    <t>SyncMode:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Progress:</t>
+  </si>
+  <si>
+    <t>SourceVolumeId:</t>
+  </si>
+  <si>
+    <t>SourceVolumeName:</t>
+  </si>
+  <si>
+    <t>SourcePoolName:</t>
+  </si>
+  <si>
+    <t>SourcePortalIP:</t>
+  </si>
+  <si>
+    <t>DestinationVolumeId:</t>
+  </si>
+  <si>
+    <t>DestinationVolumeName:</t>
+  </si>
+  <si>
+    <t>DestinationPoolName:</t>
+  </si>
+  <si>
+    <t>DestinationPortalIP:</t>
+  </si>
+  <si>
+    <t>TotalCapacity:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsedCapacity: </t>
+  </si>
+  <si>
+    <t>replication -a stop -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active-Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a pause -i 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a resume -i 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a del -i 1 -f -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a export -i 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot -a add -t volume -d 6 -s "name=test_replica"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error (</t>
+  </si>
+  <si>
+    <t>volume -a del -i 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not be exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not be modified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not create snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not be added for lunmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source volume should not be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source pool should not be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool -a del -i 0 -f -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination pool should not be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication should be paused by source volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 6 -s "name=no_way"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 6 -s "capacity=6GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume should not be expanded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 2 -s "capacity=5GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source volume should not be expanded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -p volume -i 0 -l 6 -m 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i 100 -p 0 -s "name=test_thin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify nonexistent source volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume id=[100] is not existed</t>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 10 -s "name=test_thin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify nonexistent destination pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pool id=[10] is not existed</t>
+  </si>
+  <si>
+    <t>replication -a start -i 1 -p 0 -s "name=test_thin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume is not full-provision</t>
+  </si>
+  <si>
+    <t>thin provision volume cannot become source volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 2 -s "name=test_thin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not replicate Volume to the same Pool</t>
+  </si>
+  <si>
+    <t>Can not replicate Volume to the same Pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 1 -s "name="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name contain only alphanumeric characters and underscores</t>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 1 -s "name=t*&amp;"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 1 -s "name=test_test_test_test_test_test_033"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name shall not exceed 32 characters</t>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 1 -s "name=test,syncmode=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should hint error when specify wrong sync mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should hint error when name shall not exceed 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a stop -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a stop -i 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication should not stop by destination volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a stop -i 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume id=[20] is not existed</t>
+  </si>
+  <si>
+    <t>replication -a pause -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a pause -i 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a pause -i 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a resume -i 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a resume -i 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a resume -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting test (async|semi-sync|sync)</t>
+  </si>
+  <si>
+    <t>Incorrect parameters</t>
+  </si>
+  <si>
+    <t>replication should not pause by destination volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a resume -i 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should hint replication doesn't pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 1 -s "test=test,syncmode=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 1 -s "name=test,test=sync"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a stop -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a pause -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a resume -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid option: test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i 1 -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 2 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a stop -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a pause -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a resume -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a list -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific replication should be stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication should be resumed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication help document should be displayed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid option: -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Missing parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Block: 8 KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sector: 512 Bytes</t>
-  </si>
-  <si>
-    <t>SyncMode: standard</t>
-  </si>
-  <si>
-    <t>Logbias: latency</t>
-  </si>
-  <si>
-    <t>Compress: off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a list -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all of replication should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all of replication should be listed by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replicaiton -h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication help document should be displayed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Usage:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summary:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Options:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Examples:</t>
-  </si>
-  <si>
-    <t>replication -a start -i 5 -p 0 -s "name=test_Test_Test_Test_Test_Test_32"</t>
-  </si>
-  <si>
-    <t>replication should be started by "name=test_Test_Test_Test_Test_Test_32"</t>
-  </si>
-  <si>
-    <t>replication should be started by "name=T, syncmode=async"</t>
-  </si>
-  <si>
-    <t>replication -a start -i 3 -p 1 -s "name=t2, syncmode=semi-sync"</t>
-  </si>
-  <si>
-    <t>replication should be started by "name=t2, syncmode=semi-sync"</t>
-  </si>
-  <si>
-    <t>replication -a start -i 4 -p 0 -s "name=test_Test_Test_Test_Test_Test31, syncmode=sync"</t>
-  </si>
-  <si>
-    <t>replication should be started by "name=test_Test_Test_Test_Test_Test31, syncmode=sync"</t>
-  </si>
-  <si>
-    <t>volume -i 6 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvType: Replication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvKind: Local</t>
-  </si>
-  <si>
-    <t>AdvRole: Destination</t>
-  </si>
-  <si>
-    <t>AdvRole: Source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvMode: Active-Passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvProtocol: Semi-Sync</t>
-  </si>
-  <si>
-    <t>AdvProtocol: Async</t>
-  </si>
-  <si>
-    <t>AdvProtocol: Sync</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 5 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block: 64 KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block: 64 KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sector: 4 KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SyncMode: disabled</t>
-  </si>
-  <si>
-    <t>Logbias: throughput</t>
-  </si>
-  <si>
-    <t>Compress: gzip</t>
-  </si>
-  <si>
-    <t>replication -a start -i 2 -p 1 -s "name=T, syncmode=async"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 7 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 8 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdvStatus: Syncing</t>
-  </si>
-  <si>
-    <t>replication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SrcVol</t>
-  </si>
-  <si>
-    <t>DestVol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalCap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Location: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role:</t>
-  </si>
-  <si>
-    <t>Mode:</t>
-  </si>
-  <si>
-    <t>SyncMode:</t>
-  </si>
-  <si>
-    <t>Status:</t>
-  </si>
-  <si>
-    <t>Description:</t>
-  </si>
-  <si>
-    <t>Progress:</t>
-  </si>
-  <si>
-    <t>SourceVolumeId:</t>
-  </si>
-  <si>
-    <t>SourceVolumeName:</t>
-  </si>
-  <si>
-    <t>SourcePoolName:</t>
-  </si>
-  <si>
-    <t>SourcePortalIP:</t>
-  </si>
-  <si>
-    <t>DestinationVolumeId:</t>
-  </si>
-  <si>
-    <t>DestinationVolumeName:</t>
-  </si>
-  <si>
-    <t>DestinationPoolName:</t>
-  </si>
-  <si>
-    <t>DestinationPortalIP:</t>
-  </si>
-  <si>
-    <t>TotalCapacity:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UsedCapacity: </t>
-  </si>
-  <si>
-    <t>replication -a stop -i 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific replication should be stopped</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active-Passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a pause -i 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a resume -i 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication should be resumed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a del -i 1 -f -y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a export -i 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a add -p volume -i 0 -l 6 -m 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snapshot -a add -t volume -d 6 -s "name=test_replica"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error (</t>
-  </si>
-  <si>
-    <t>volume -a mod -i 6 -s "name=no_way"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destination volume should not be exported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destination volume should not be modified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destination volume should not create snapshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destination volume should not be added for lunmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destination volume should not be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source volume should not be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source pool should not be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool -a del -i 0 -f -y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>destination pool should not be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -v -i 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication should be paused by source volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication should be paused by destination volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication -a pause -i 8</t>
+    <t>zp254243d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +988,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -786,178 +1025,178 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
         <v>47</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -975,15 +1214,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -992,21 +1231,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1015,6 +1260,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1023,18 +1271,57 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1046,15 +1333,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="32.875" customWidth="1"/>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1062,29 +1350,38 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1093,6 +1390,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1101,6 +1401,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1109,6 +1412,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1117,6 +1423,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1125,6 +1434,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -1133,6 +1445,9 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -1141,6 +1456,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1149,42 +1467,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1197,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1216,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1224,92 +1513,114 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1635,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1353,25 +1664,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1697,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1423,67 +1734,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>65</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>66</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>67</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>68</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>70</v>
-      </c>
-      <c r="R2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1809,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1524,16 +1835,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1545,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1574,24 +1885,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1906,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1632,13 +1932,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1953,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1681,22 +1981,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1708,36 +2008,236 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.375" customWidth="1"/>
+    <col min="2" max="3" width="63.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/replication.xlsx
+++ b/data/replication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="876" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="start_replication" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -638,6 +638,25 @@
   </si>
   <si>
     <t>zp254243d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 3 -s "name=test_capacity"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination pool capacity should be more than soure volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail to execute this method</t>
+  </si>
+  <si>
+    <t>replication -a start -i 0 -p 0 -s "name=firth_replica"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max 4 pairs of replication</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1513,10 +1532,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
@@ -1524,10 +1543,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -1535,10 +1554,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
@@ -1546,10 +1565,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -1557,10 +1576,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -1568,10 +1587,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -1579,10 +1598,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -1590,22 +1609,21 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
@@ -1614,12 +1632,24 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2008,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2056,62 +2086,62 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
         <v>118</v>
@@ -2122,121 +2152,132 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>134</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>129</v>
       </c>
     </row>

--- a/data/replication.xlsx
+++ b/data/replication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="start_replication" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="177">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,9 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Error (</t>
-  </si>
-  <si>
     <t>volume -a del -i 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,15 +646,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fail to execute this method</t>
-  </si>
-  <si>
     <t>replication -a start -i 0 -p 0 -s "name=firth_replica"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Max 4 pairs of replication</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination Pool availiable size is not enough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support maximum 4 local replication</t>
+  </si>
+  <si>
+    <t>Destination volume of replication in Active_Passive mode cannot be exported</t>
+  </si>
+  <si>
+    <t>Volume is replication or migration Volume</t>
+  </si>
+  <si>
+    <t>Destination volume of replication or migration cannot create snapshot</t>
+  </si>
+  <si>
+    <t>The volume/snapshot/clone is un-exported</t>
+  </si>
+  <si>
+    <t>There are replication or migration Volume in the Pool</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1258,10 +1274,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1269,7 +1285,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1280,7 +1296,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1291,29 +1307,29 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1324,7 +1340,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1335,7 +1351,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1369,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1377,7 +1393,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1388,10 +1404,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1399,7 +1415,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1410,7 +1426,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1421,7 +1437,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1432,7 +1448,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1443,7 +1459,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1454,7 +1470,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1465,7 +1481,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1476,7 +1492,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1487,7 +1503,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1507,15 +1523,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="59.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1524,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1532,13 +1548,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
         <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1546,32 +1562,32 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1579,43 +1595,43 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1623,10 +1639,10 @@
         <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1635,22 +1651,22 @@
         <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1780,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1868,10 +1884,10 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -1918,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -1965,7 +1981,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2011,10 +2027,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -2040,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2056,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2064,7 +2080,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2075,7 +2091,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2086,106 +2102,106 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
         <v>117</v>
       </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
         <v>120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
         <v>122</v>
       </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2196,32 +2212,32 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
         <v>126</v>
       </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
         <v>128</v>
       </c>
-      <c r="B15" t="s">
-        <v>129</v>
-      </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2232,23 +2248,23 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2259,15 +2275,15 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
         <v>139</v>
-      </c>
-      <c r="B20" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2275,10 +2291,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/replication.xlsx
+++ b/data/replication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="start_replication" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="176">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,9 +659,6 @@
   </si>
   <si>
     <t>Support maximum 4 local replication</t>
-  </si>
-  <si>
-    <t>Destination volume of replication in Active_Passive mode cannot be exported</t>
   </si>
   <si>
     <t>Volume is replication or migration Volume</t>
@@ -1523,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1576,7 +1573,7 @@
         <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1587,7 +1584,7 @@
         <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1598,7 +1595,7 @@
         <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1609,7 +1606,7 @@
         <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1620,7 +1617,7 @@
         <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1631,7 +1628,7 @@
         <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1642,7 +1639,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1654,7 +1651,7 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1666,7 +1663,7 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2056,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/replication.xlsx
+++ b/data/replication.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="179">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,9 +519,6 @@
     <t>invalid setting test (async|semi-sync|sync)</t>
   </si>
   <si>
-    <t>Incorrect parameters</t>
-  </si>
-  <si>
     <t>replication should not pause by destination volume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,10 +631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zp254243d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>replication -a start -i 0 -p 3 -s "name=test_capacity"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,6 +664,26 @@
   </si>
   <si>
     <t>There are replication or migration Volume in the Pool</t>
+  </si>
+  <si>
+    <t>There is not local replication source volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only source Volume can be paused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume id=[20] is not existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This replication is not paused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only source Volume can be resumed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1271,10 +1284,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1282,7 +1295,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1293,7 +1306,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1304,29 +1317,29 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1337,7 +1350,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1348,7 +1361,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1390,7 +1403,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1404,7 +1417,7 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1412,7 +1425,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1423,7 +1436,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1434,7 +1447,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1445,7 +1458,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1456,7 +1469,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1467,7 +1480,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1478,7 +1491,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1489,7 +1502,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1500,7 +1513,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1545,13 +1558,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1562,7 +1575,7 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1573,7 +1586,7 @@
         <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1584,7 +1597,7 @@
         <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1595,7 +1608,7 @@
         <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1606,7 +1619,7 @@
         <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1617,7 +1630,7 @@
         <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1628,7 +1641,7 @@
         <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1639,7 +1652,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1651,7 +1664,7 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1663,7 +1676,7 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1790,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1881,7 +1894,7 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1978,7 +1991,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2027,7 +2040,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -2051,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2064,7 +2077,7 @@
     <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -2086,7 +2099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -2097,18 +2110,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -2119,7 +2132,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2130,7 +2143,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2141,7 +2154,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -2152,7 +2165,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2163,7 +2176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -2174,7 +2187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -2196,7 +2209,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2207,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2215,13 +2228,10 @@
         <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -2232,7 +2242,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2248,7 +2258,10 @@
         <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -2258,6 +2271,9 @@
       <c r="B18" t="s">
         <v>128</v>
       </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
@@ -2272,10 +2288,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
         <v>138</v>
       </c>
-      <c r="B20" t="s">
-        <v>139</v>
+      <c r="C20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -2285,6 +2304,9 @@
       <c r="B21" t="s">
         <v>8</v>
       </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -2292,6 +2314,9 @@
       </c>
       <c r="B22" t="s">
         <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/replication.xlsx
+++ b/data/replication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="start_replication" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="179">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,9 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AdvStatus: Syncing</t>
-  </si>
-  <si>
     <t>replication</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -683,6 +680,10 @@
   </si>
   <si>
     <t>Only source Volume can be resumed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination Volume of Replication or Migration can not be changed setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1051,10 +1052,9 @@
     <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1108,11 +1108,8 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1152,11 +1149,8 @@
       <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1196,11 +1190,8 @@
       <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1240,14 +1231,11 @@
       <c r="M5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D7" s="1"/>
     </row>
   </sheetData>
@@ -1276,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1284,10 +1272,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1295,7 +1283,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1306,7 +1294,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1317,29 +1305,29 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1350,7 +1338,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1361,7 +1349,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1395,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1403,7 +1391,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1414,10 +1402,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1425,7 +1413,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1436,7 +1424,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1447,7 +1435,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1458,7 +1446,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1469,7 +1457,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1480,7 +1468,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1491,7 +1479,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1502,7 +1490,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1513,7 +1501,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1533,15 +1521,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="59.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1550,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1558,125 +1546,125 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" t="s">
-        <v>167</v>
-      </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1720,25 +1708,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1790,67 +1778,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>62</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>67</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>68</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>69</v>
-      </c>
-      <c r="U2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1891,16 +1879,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1941,13 +1929,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1988,13 +1976,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2037,10 +2025,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -2066,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2082,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2090,7 +2078,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2101,7 +2089,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2112,106 +2100,106 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
         <v>164</v>
       </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
         <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
         <v>113</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
         <v>116</v>
       </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" t="s">
-        <v>122</v>
-      </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2222,29 +2210,29 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
         <v>125</v>
       </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="B15" t="s">
-        <v>128</v>
-      </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2255,29 +2243,29 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2288,35 +2276,35 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
         <v>137</v>
       </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/replication.xlsx
+++ b/data/replication.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="start_replication" sheetId="5" r:id="rId1"/>
     <sheet name="forbidden_action" sheetId="13" r:id="rId2"/>
-    <sheet name="list_replication" sheetId="7" r:id="rId3"/>
-    <sheet name="list_replication_by_verbose" sheetId="8" r:id="rId4"/>
-    <sheet name="stop_replication" sheetId="9" r:id="rId5"/>
-    <sheet name="pause_replication" sheetId="11" r:id="rId6"/>
-    <sheet name="resume_replication" sheetId="12" r:id="rId7"/>
-    <sheet name="help_replication" sheetId="10" r:id="rId8"/>
-    <sheet name="invalid_setting_for_replication" sheetId="3" r:id="rId9"/>
-    <sheet name="invalid_option_for_replication" sheetId="2" r:id="rId10"/>
-    <sheet name="missing_parameter_replication" sheetId="4" r:id="rId11"/>
+    <sheet name="sync_source_attribute" sheetId="14" r:id="rId3"/>
+    <sheet name="list_replication" sheetId="7" r:id="rId4"/>
+    <sheet name="list_replication_by_verbose" sheetId="8" r:id="rId5"/>
+    <sheet name="stop_replication" sheetId="9" r:id="rId6"/>
+    <sheet name="pause_replication" sheetId="11" r:id="rId7"/>
+    <sheet name="resume_replication" sheetId="12" r:id="rId8"/>
+    <sheet name="help_replication" sheetId="10" r:id="rId9"/>
+    <sheet name="invalid_setting_for_replication" sheetId="3" r:id="rId10"/>
+    <sheet name="invalid_option_for_replication" sheetId="2" r:id="rId11"/>
+    <sheet name="missing_parameter_replication" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="186">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +685,33 @@
   </si>
   <si>
     <t>Destination Volume of Replication or Migration can not be changed setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 2 -s "thinprov=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can not be changed setting of name or Thin Provision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source volume should not be modified thinprov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination volume attribute should be synchronous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: zle</t>
+  </si>
+  <si>
+    <t>volume -a mod -i 2 -s "sync=standard,logbias=latency,compress=zle"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,7 +1062,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1247,6 +1275,270 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="77.375" customWidth="1"/>
+    <col min="2" max="3" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1364,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1519,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1634,36 +1926,47 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>90</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1675,6 +1978,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="68.5" customWidth="1"/>
+    <col min="2" max="2" width="52.375" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1736,7 +2104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -1848,7 +2216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1898,7 +2266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1945,7 +2313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1992,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2048,268 +2416,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="77.375" customWidth="1"/>
-    <col min="2" max="3" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/replication.xlsx
+++ b/data/replication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="876" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="start_replication" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,17 +479,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>replication should not stop by destination volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>replication -a stop -i 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Volume id=[20] is not existed</t>
-  </si>
-  <si>
     <t>replication -a pause -i test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,10 +510,6 @@
     <t>invalid setting test (async|semi-sync|sync)</t>
   </si>
   <si>
-    <t>replication should not pause by destination volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>replication -a resume -i 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,26 +653,10 @@
     <t>There are replication or migration Volume in the Pool</t>
   </si>
   <si>
-    <t>There is not local replication source volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only source Volume can be paused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume id=[20] is not existed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This replication is not paused</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only source Volume can be resumed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Destination Volume of Replication or Migration can not be changed setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -712,6 +685,13 @@
   </si>
   <si>
     <t>volume -a mod -i 2 -s "sync=standard,logbias=latency,compress=zle"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specified replication not exists</t>
+  </si>
+  <si>
+    <t>Specified replication not exists</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,13 +1303,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
         <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1417,7 +1397,7 @@
         <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1436,26 +1416,26 @@
         <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1466,29 +1446,29 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1499,35 +1479,35 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1564,10 +1544,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1575,7 +1555,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1586,7 +1566,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1597,29 +1577,29 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1630,7 +1610,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1641,7 +1621,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1683,7 +1663,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1697,7 +1677,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1705,7 +1685,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1716,7 +1696,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1727,7 +1707,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1738,7 +1718,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1749,7 +1729,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1760,7 +1740,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1771,7 +1751,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1782,7 +1762,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1793,7 +1773,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1838,13 +1818,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>165</v>
-      </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1855,7 +1835,7 @@
         <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1866,7 +1846,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1877,7 +1857,7 @@
         <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1888,7 +1868,7 @@
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1899,7 +1879,7 @@
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1910,7 +1890,7 @@
         <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1921,18 +1901,18 @@
         <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1943,7 +1923,7 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1955,7 +1935,7 @@
         <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1967,7 +1947,7 @@
         <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2011,13 +1991,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2026,7 +2006,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2146,7 +2126,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2221,7 +2201,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2250,7 +2230,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -2347,7 +2327,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -2396,7 +2376,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
